--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-207403.3654954352</v>
+        <v>-212117.2764498001</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516698</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11842964.54502928</v>
+        <v>11840604.62746761</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>50.2774423996114</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -674,10 +674,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>35.26123318349515</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142.6217034654842</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -789,10 +789,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>101.346806095323</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -804,7 +804,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>53.03638470914581</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>152.7120298215368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>170.0563654759584</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>240.3649424075823</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>69.9893010461515</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072244</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>256.4561542453787</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>372.4089305243873</v>
       </c>
       <c r="C8" t="n">
-        <v>235.4551847859273</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.417892858628</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>25.04920302937065</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>94.381471739235</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>102.4796252396911</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E13" t="n">
-        <v>44.02383805464093</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>35.9020970229532</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>88.34221883812141</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
@@ -1625,7 +1625,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>6.897481179121769</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>43.74638894804117</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>8.165939144074231</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
@@ -1844,7 +1844,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
         <v>251.2267481799146</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,22 +1892,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879316</v>
+        <v>208.3257718879334</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
         <v>251.2267481799146</v>
@@ -2090,16 +2090,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
         <v>251.2267481799146</v>
@@ -2327,7 +2327,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412925</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
         <v>236.9290753658111</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978639</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815729</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820278</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.22123233455</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838894</v>
+        <v>24.17382596574978</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828906</v>
+        <v>52.06849973564991</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434675</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034459</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431739</v>
+        <v>70.57601873167823</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459979</v>
+        <v>55.72314698196064</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643952</v>
+        <v>41.29686219380037</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931863</v>
+        <v>41.22330424667948</v>
       </c>
       <c r="F34" t="n">
-        <v>49.4162181390859</v>
+        <v>42.97275566644674</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147803</v>
+        <v>53.79159358883888</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805008</v>
+        <v>41.14384575541092</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922201</v>
+        <v>18.98356133658285</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367792</v>
+        <v>9.88205970103877</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920524</v>
+        <v>88.00800320656609</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875645</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,16 +3749,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2174.782969737749</v>
+        <v>907.1778479944132</v>
       </c>
       <c r="C2" t="n">
-        <v>2123.997674384606</v>
+        <v>907.1778479944132</v>
       </c>
       <c r="D2" t="n">
-        <v>1738.556545601274</v>
+        <v>907.1778479944132</v>
       </c>
       <c r="E2" t="n">
-        <v>1335.973020717819</v>
+        <v>907.1778479944132</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>490.283409524391</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>77.12065401239414</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>77.12065401239414</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="M2" t="n">
-        <v>1578.706865059667</v>
+        <v>1058.738054302316</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845421</v>
+        <v>1572.340732912005</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737749</v>
+        <v>2012.380333804333</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="V2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="W2" t="n">
-        <v>2174.782969737749</v>
+        <v>1704.163302785209</v>
       </c>
       <c r="X2" t="n">
-        <v>2174.782969737749</v>
+        <v>1704.163302785209</v>
       </c>
       <c r="Y2" t="n">
-        <v>2174.782969737749</v>
+        <v>1307.67259370581</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822425</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.8829133828434</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>347.3800255716919</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>885.6388105817848</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591878</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635814</v>
+        <v>2051.245294714986</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614855</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734591</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413233</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.3482927843</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675983</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>986.9239692675983</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>524.7087611798217</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C4" t="n">
-        <v>524.7087611798217</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D4" t="n">
-        <v>369.0756480823365</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E4" t="n">
-        <v>369.0756480823365</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F4" t="n">
-        <v>211.7497132953094</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>616.2331961130174</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>380.5141442812514</v>
       </c>
       <c r="U4" t="n">
-        <v>944.9426819363074</v>
+        <v>95.07535252315239</v>
       </c>
       <c r="V4" t="n">
-        <v>678.9633367571316</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="W4" t="n">
-        <v>678.9633367571316</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="X4" t="n">
-        <v>524.7087611798217</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="Y4" t="n">
-        <v>524.7087611798217</v>
+        <v>41.50324675633843</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>237.246151837338</v>
+        <v>1636.674678391046</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596594</v>
+        <v>1636.674678391046</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596594</v>
+        <v>1251.233549607714</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596594</v>
+        <v>848.6500247242586</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634776</v>
+        <v>431.7555862542364</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475499</v>
+        <v>422.6332347826436</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475499</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K5" t="n">
-        <v>175.3530084793369</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>668.6733001978657</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1206.932085207959</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1734.743368845421</v>
+        <v>1921.011251721705</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023271</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="V5" t="n">
-        <v>1794.68324672679</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="W5" t="n">
-        <v>1423.684211695077</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="X5" t="n">
-        <v>1034.231606628134</v>
+        <v>2037.169424102443</v>
       </c>
       <c r="Y5" t="n">
-        <v>637.7408975487349</v>
+        <v>2037.169424102443</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021442</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>505.1591874622364</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837168</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>238.6237291946045</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>114.1919230777363</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>43.49565939475499</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>43.49565939475499</v>
+        <v>90.89050074442684</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653872</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>921.5731989359455</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182859</v>
+        <v>1840.797246262031</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635814</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734591</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413233</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.3482927843</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917587</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675983</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431056</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475499</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>876.2517857624357</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>590.8129940043366</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>324.8336488251608</v>
       </c>
       <c r="W7" t="n">
-        <v>685.8960614864299</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="X7" t="n">
-        <v>451.8157392694129</v>
+        <v>41.50324675633843</v>
       </c>
       <c r="Y7" t="n">
-        <v>228.7036780860563</v>
+        <v>41.50324675633843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2365.64850507718</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="C8" t="n">
-        <v>2127.814985091395</v>
+        <v>1989.47786818386</v>
       </c>
       <c r="D8" t="n">
-        <v>1742.373856308063</v>
+        <v>1604.036739400527</v>
       </c>
       <c r="E8" t="n">
-        <v>1339.790331424607</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>922.895892954585</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,19 +4805,19 @@
         <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>173.6308686433316</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>850.6182020620834</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>623.6437572083089</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>817.0247473313507</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>661.4659351905532</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>504.1400004035262</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>335.8859465029718</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>361.021642344264</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>361.021642344264</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1452.672125045209</v>
+        <v>1795.371010771261</v>
       </c>
       <c r="C11" t="n">
-        <v>1131.292898694334</v>
+        <v>1473.991784420386</v>
       </c>
       <c r="D11" t="n">
-        <v>817.6480450571955</v>
+        <v>1160.346930783247</v>
       </c>
       <c r="E11" t="n">
-        <v>722.3132251185752</v>
+        <v>829.5596810459854</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185752</v>
+        <v>484.4615177221572</v>
       </c>
       <c r="G11" t="n">
         <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411553</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998632</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2740.928571142733</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543618</v>
+        <v>2441.725811257214</v>
       </c>
       <c r="X11" t="n">
-        <v>2106.065029543618</v>
+        <v>2124.069481336464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1781.370595610412</v>
+        <v>2124.069481336464</v>
       </c>
     </row>
     <row r="12">
@@ -5121,13 +5121,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M12" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>531.9643582836829</v>
+        <v>474.8748941930976</v>
       </c>
       <c r="C13" t="n">
-        <v>433.5555154958661</v>
+        <v>376.4660514052806</v>
       </c>
       <c r="D13" t="n">
-        <v>433.5555154958661</v>
+        <v>292.6292134539892</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083498</v>
+        <v>292.6292134539892</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675165</v>
+        <v>207.099553813156</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
@@ -5197,19 +5197,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1313.608118922022</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1099.965602310116</v>
+        <v>1113.42059776882</v>
       </c>
       <c r="V13" t="n">
-        <v>905.7825322771344</v>
+        <v>1113.42059776882</v>
       </c>
       <c r="W13" t="n">
-        <v>694.2484053545058</v>
+        <v>901.8864708461911</v>
       </c>
       <c r="X13" t="n">
-        <v>531.9643582836829</v>
+        <v>739.6024237753679</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.9643582836829</v>
+        <v>588.2866377382051</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1463.714265689663</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1142.335039338787</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1053.100474855837</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>3004.271952586837</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>3004.271952586837</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2686.615622666087</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2361.921188732882</v>
+        <v>1463.714265689663</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>175.2341099238429</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>803.0057595505241</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>424.5048630898964</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="C16" t="n">
-        <v>326.0960203020795</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="D16" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="E16" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F16" t="n">
-        <v>242.2591823507883</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,10 +5437,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T16" t="n">
-        <v>1357.464409765398</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U16" t="n">
-        <v>1143.821893153493</v>
+        <v>1067.062634295801</v>
       </c>
       <c r="V16" t="n">
-        <v>949.6388231205108</v>
+        <v>872.879564262819</v>
       </c>
       <c r="W16" t="n">
-        <v>738.1046961978822</v>
+        <v>661.3454373401905</v>
       </c>
       <c r="X16" t="n">
-        <v>575.8206491270591</v>
+        <v>499.0613902693675</v>
       </c>
       <c r="Y16" t="n">
-        <v>424.5048630898964</v>
+        <v>347.7456042322046</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803434</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5543,22 +5543,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>313.661451296042</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567345</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879436</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296516</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,28 +5771,28 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443166</v>
@@ -5829,22 +5829,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P21" t="n">
         <v>2146.089571124861</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291065</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390484</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128481</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M22" t="n">
-        <v>593.6560140511122</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>776.8456480823213</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>939.5504151240293</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1059.426580900608</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924231</v>
+        <v>68.77950792924227</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
         <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6060,10 +6060,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
@@ -6078,7 +6078,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1634.317313094942</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885599</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634916</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072687</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462925</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
@@ -6154,43 +6154,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296519</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R25" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918815</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161908</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194235</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330095</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974528</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>247.9841471388005</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>700.0178648958356</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1193.338156614364</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3079.395388107028</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605751</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,25 +6461,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>700.0178648958359</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1286.389518343938</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M29" t="n">
-        <v>1925.441780118092</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N29" t="n">
-        <v>2546.304425485127</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.4284403795</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6546,13 +6546,13 @@
         <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>1020.875654636458</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1676.653625847017</v>
       </c>
       <c r="O30" t="n">
         <v>1751.713933651898</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796859</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286445</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463672</v>
+        <v>904.3560533993075</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108105</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189323</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>299.607503995599</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>763.8629527501309</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.18324446866</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.18414451324</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150703</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043031</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901623</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042572</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038082</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696896</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>352.4112837456083</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>835.9773696439215</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965132</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918669</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237462</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123132</v>
+        <v>226.0316571652536</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546507</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834607</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431922</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076164</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798905</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074064</v>
+        <v>337.0682132920792</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082763</v>
+        <v>612.8479737408619</v>
       </c>
       <c r="M34" t="n">
-        <v>787.8473431465403</v>
+        <v>910.7916726541089</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>1093.981306685318</v>
       </c>
       <c r="O34" t="n">
-        <v>1257.542160872944</v>
+        <v>1256.686073727026</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649523</v>
+        <v>1376.562239503605</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746644</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387758</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518098</v>
+        <v>1159.305643501592</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250179</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395522</v>
+        <v>835.7257283273674</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000944</v>
+        <v>666.3144371400703</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012442</v>
+        <v>546.1532258045786</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584499</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,28 +7093,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222413</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924244</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7257,10 +7257,10 @@
         <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498593</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975461</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099317</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803433</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924231</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,28 +7433,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573996</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224692</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>318.9689542635005</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885599</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634916</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072687</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462925</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222413</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918815</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161908</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194235</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330095</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7728,19 +7728,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M45" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N45" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>2009.716291882317</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>442.7178209184696</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N2" t="n">
-        <v>306.7311214244044</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>213.7176129102065</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8058,19 +8058,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>282.756694288443</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837492</v>
+        <v>611.1777065035423</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886039</v>
+        <v>458.3732307488509</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8216,19 +8216,19 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>276.247644678815</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321646</v>
+        <v>668.5156360519577</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920145</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>305.2720051970421</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8298,16 +8298,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>541.7935023090932</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999716</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886039</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431193</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8453,10 +8453,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>270.6522400901343</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>560.2818744604613</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8769,16 +8769,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>624.8237719316268</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>510.5662141339224</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9246,13 +9246,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>136.3731801151487</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9261,7 +9261,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9416,7 +9416,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475136</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9477,25 +9477,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>376.828569071589</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>327.7205688679246</v>
@@ -9641,7 +9641,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
-        <v>651.5514946987045</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M23" t="n">
         <v>701.2411122488187</v>
@@ -9726,10 +9726,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -10194,16 +10194,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>168.5060516210919</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
@@ -10428,16 +10428,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063265</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10905,13 +10905,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>280.5807329993939</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,10 +11136,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>349.0412045852374</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,7 +11376,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>377.3304183063261</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
@@ -11391,7 +11391,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>233.097905500654</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>235.4731903224539</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>38.90107357001664</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>175.603994422833</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>222.1661862626456</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>260.7099476296631</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>68.53123716161485</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>154.117609774642</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>-9.947598300641403e-13</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1035305.785773174</v>
+        <v>1034102.690545654</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1035305.785773174</v>
+        <v>1034102.690545654</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>928091.80080283</v>
+        <v>928091.8008028296</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>928091.8008028298</v>
+        <v>928091.8008028299</v>
       </c>
     </row>
     <row r="7">
@@ -26317,31 +26317,31 @@
         <v>270498.2671400351</v>
       </c>
       <c r="D2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="E2" t="n">
+        <v>239038.5351366007</v>
+      </c>
+      <c r="F2" t="n">
         <v>239038.5351366011</v>
       </c>
-      <c r="F2" t="n">
-        <v>239038.535136601</v>
-      </c>
       <c r="G2" t="n">
+        <v>270498.2671400353</v>
+      </c>
+      <c r="H2" t="n">
         <v>270498.2671400352</v>
-      </c>
-      <c r="H2" t="n">
-        <v>270498.2671400353</v>
       </c>
       <c r="I2" t="n">
         <v>270498.2671400352</v>
       </c>
       <c r="J2" t="n">
-        <v>270498.2671400354</v>
+        <v>270498.2671400353</v>
       </c>
       <c r="K2" t="n">
-        <v>270498.2671400353</v>
+        <v>270498.2671400355</v>
       </c>
       <c r="L2" t="n">
-        <v>270498.2671400353</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="M2" t="n">
         <v>270498.2671400351</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062187</v>
+        <v>22558.42953401354</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668191</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399292</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728544</v>
+        <v>62456.24177539683</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962298</v>
+        <v>43252.52447081117</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277127</v>
+        <v>27767.69404277115</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840229</v>
+        <v>216193.9885327256</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
       </c>
       <c r="E4" t="n">
-        <v>125701.6674923646</v>
+        <v>125701.6674923645</v>
       </c>
       <c r="F4" t="n">
         <v>125701.6674923646</v>
       </c>
       <c r="G4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="H4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="I4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
         <v>174211.0764483299</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26457,7 +26457,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="P4" t="n">
-        <v>173460.5839839468</v>
+        <v>173460.5839839467</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001379</v>
+        <v>65170.06753481721</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315422</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189075.8917758576</v>
+        <v>-184724.4459615628</v>
       </c>
       <c r="C6" t="n">
-        <v>-6870.943484001677</v>
+        <v>-10865.78892750776</v>
       </c>
       <c r="D6" t="n">
-        <v>-14039.26450567303</v>
+        <v>-21775.55372906468</v>
       </c>
       <c r="E6" t="n">
-        <v>-51971.71352964854</v>
+        <v>-52181.4450763384</v>
       </c>
       <c r="F6" t="n">
-        <v>60150.84794439588</v>
+        <v>59941.11639770644</v>
       </c>
       <c r="G6" t="n">
-        <v>-8557.411696113057</v>
+        <v>-8557.411696113064</v>
       </c>
       <c r="H6" t="n">
-        <v>38867.91384056892</v>
+        <v>38867.91384056879</v>
       </c>
       <c r="I6" t="n">
-        <v>38867.91384056884</v>
+        <v>38867.9138405688</v>
       </c>
       <c r="J6" t="n">
-        <v>-174174.0037567166</v>
+        <v>-167657.7186021433</v>
       </c>
       <c r="K6" t="n">
-        <v>32628.14543778594</v>
+        <v>32628.14543778609</v>
       </c>
       <c r="L6" t="n">
-        <v>-22554.44349683511</v>
+        <v>-26603.2807073076</v>
       </c>
       <c r="M6" t="n">
-        <v>-3332.915619054285</v>
+        <v>-4384.610630242503</v>
       </c>
       <c r="N6" t="n">
-        <v>38867.9138405688</v>
+        <v>38867.91384056874</v>
       </c>
       <c r="O6" t="n">
-        <v>11100.21979779753</v>
+        <v>11100.21979779757</v>
       </c>
       <c r="P6" t="n">
-        <v>38867.91384056874</v>
+        <v>38867.91384056881</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,19 +26805,19 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
+        <v>917.060736844378</v>
+      </c>
+      <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
       <c r="L4" t="n">
-        <v>869.3443530095205</v>
+        <v>844.4391950293135</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014444</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660681</v>
+        <v>78.07030221924603</v>
       </c>
       <c r="M2" t="n">
-        <v>24.0235120155135</v>
+        <v>17.58004954287435</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346408</v>
+        <v>34.70961755346394</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773711</v>
+        <v>659.3622249971642</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407254</v>
+        <v>117.1268713042796</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085238</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485777</v>
+        <v>72.62154181506469</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>338.9663040824873</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>101.6925125549647</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.656667631067478</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>73.86716758775765</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,16 +27540,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>210.2831670182382</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>79.02748917330996</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>219.1873810061403</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>80.47727752159193</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48.86991870270271</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758562</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
@@ -27825,22 +27825,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24.04094380275541</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>24.0808677298956</v>
       </c>
       <c r="C8" t="n">
-        <v>153.7885616961714</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>23.65888910788243</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>257.5352008111474</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="18">
@@ -28719,40 +28719,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>5.636002634530115</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M19" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28770,25 +28770,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,40 +28956,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>130.3599693155843</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.636002634529092</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.71049010668912</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -29226,43 +29226,43 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>5.636002634530172</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J26" t="n">
-        <v>30.27223765901226</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901169</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431636</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="29">
@@ -29533,10 +29533,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>30.27223765901255</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
+        <v>30.27223765901221</v>
+      </c>
+      <c r="P29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,40 +29746,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566588</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -29788,34 +29788,34 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.3364573000709</v>
+        <v>43.49509683159852</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224716</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254191</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>5.636002634529177</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30241,7 +30241,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155842</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,22 +30411,22 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>28.01250026485198</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5.636002634529005</v>
-      </c>
-      <c r="R40" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733466</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="42">
@@ -30615,40 +30615,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529177</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.6360026345302</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,43 +30852,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5.636002634530001</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N2" t="n">
-        <v>157.6126300866203</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>63.41616566928127</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,19 +34778,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>192.6963474315248</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344373</v>
+        <v>373.0011178946843</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>133.1892414995777</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344373</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>155.7081677729457</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>451.733155452175</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200685251</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344373</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542304</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35173,10 +35173,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>127.5938369108969</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>362.1450102553815</v>
+        <v>467.8947524111493</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>539.4516590774601</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>425.1941012797557</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>51.00106726098203</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -35981,7 +35981,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>171.4214974565501</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M19" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36136,7 +36136,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065884</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146708</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>236.7324157120106</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133907</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36297,7 +36297,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.1672541168416</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
-        <v>498.3033249682127</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M23" t="n">
         <v>551.5160606510915</v>
@@ -36446,10 +36446,10 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36522,22 +36522,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683762</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>169.984252171609</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>176.3831193851013</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>474.756683004798</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6529321611263</v>
+        <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
         <v>259.7767692963365</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>392.8806780907922</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>474.7566830047985</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36914,16 +36914,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>75.81849273220298</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917549</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318505</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
@@ -37084,13 +37084,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066586</v>
+        <v>395.1996343381862</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227376</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729932</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.2619698279118</v>
+        <v>82.70543230055097</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868809</v>
+        <v>189.5299997092815</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>278.56541459473</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.953231225502</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496208</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>88.29766032133915</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L37" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37625,13 +37625,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>188.193610950082</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>149.0995364028101</v>
       </c>
       <c r="Q40" t="n">
-        <v>9.092766644681488</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.378022275413528e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>259.444269251904</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133915</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683762</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724884</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
@@ -38111,7 +38111,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087322</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
